--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject28.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject28.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -155,13 +155,13 @@
         <v>0</v>
       </c>
       <c r="J1" s="0">
-        <v>0</v>
+        <v>0.73434513343346897</v>
       </c>
       <c r="K1" s="0">
         <v>0</v>
       </c>
       <c r="L1" s="0">
-        <v>0</v>
+        <v>0.67941078739043603</v>
       </c>
       <c r="M1" s="0">
         <v>0</v>
@@ -182,7 +182,7 @@
         <v>0</v>
       </c>
       <c r="S1" s="0">
-        <v>1</v>
+        <v>0.80723693957331266</v>
       </c>
       <c r="T1" s="0">
         <v>0</v>
@@ -224,7 +224,7 @@
         <v>0</v>
       </c>
       <c r="AG1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH1" s="0">
         <v>0</v>
@@ -305,7 +305,7 @@
         <v>0</v>
       </c>
       <c r="BH1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI1" s="0">
         <v>0</v>
@@ -320,13 +320,13 @@
         <v>0</v>
       </c>
       <c r="BM1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN1" s="0">
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP1" s="0">
         <v>0</v>
@@ -370,7 +370,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" s="0">
         <v>0</v>
@@ -412,7 +412,7 @@
         <v>0</v>
       </c>
       <c r="AA2" s="0">
-        <v>0</v>
+        <v>0.80020662762075168</v>
       </c>
       <c r="AB2" s="0">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="AM2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN2" s="0">
         <v>0</v>
@@ -469,7 +469,7 @@
         <v>0</v>
       </c>
       <c r="AT2" s="0">
-        <v>0</v>
+        <v>0.81861162983007385</v>
       </c>
       <c r="AU2" s="0">
         <v>0</v>
@@ -484,7 +484,7 @@
         <v>0</v>
       </c>
       <c r="AY2" s="0">
-        <v>0</v>
+        <v>0.54169016899105449</v>
       </c>
       <c r="AZ2" s="0">
         <v>0</v>
@@ -526,7 +526,7 @@
         <v>0</v>
       </c>
       <c r="BM2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="0">
         <v>0</v>
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>0</v>
+        <v>0.52244338298347803</v>
       </c>
     </row>
     <row r="3">
@@ -552,10 +552,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="0">
-        <v>1</v>
+        <v>0.73461841691865104</v>
       </c>
       <c r="F3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="0">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="0">
-        <v>0</v>
+        <v>0.70855841005450826</v>
       </c>
       <c r="M3" s="0">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="Y3" s="0">
-        <v>0</v>
+        <v>0.61383899160968025</v>
       </c>
       <c r="Z3" s="0">
         <v>0</v>
@@ -630,13 +630,13 @@
         <v>0</v>
       </c>
       <c r="AE3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="0">
         <v>0</v>
       </c>
       <c r="AG3" s="0">
-        <v>0</v>
+        <v>0.57593537727936539</v>
       </c>
       <c r="AH3" s="0">
         <v>0</v>
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="BN3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO3" s="0">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0</v>
+        <v>0.54473346973364323</v>
       </c>
       <c r="F4" s="0">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="0">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="AB4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="0">
         <v>0</v>
@@ -839,22 +839,22 @@
         <v>0</v>
       </c>
       <c r="AF4" s="0">
-        <v>0</v>
+        <v>0.52235660548784768</v>
       </c>
       <c r="AG4" s="0">
         <v>0</v>
       </c>
       <c r="AH4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI4" s="0">
         <v>0</v>
       </c>
       <c r="AJ4" s="0">
-        <v>0</v>
+        <v>0.63074364661535509</v>
       </c>
       <c r="AK4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4" s="0">
         <v>0</v>
@@ -875,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="AR4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS4" s="0">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="BF4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG4" s="0">
         <v>0</v>
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="BK4" s="0">
-        <v>0</v>
+        <v>0.88108803019031678</v>
       </c>
       <c r="BL4" s="0">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>1</v>
+        <v>0.53468123105736209</v>
       </c>
       <c r="D5" s="0">
-        <v>0</v>
+        <v>0.76193862847827498</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="0">
-        <v>0</v>
+        <v>0.92119861813802562</v>
       </c>
       <c r="K5" s="0">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="0">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="BC5" s="0">
-        <v>0</v>
+        <v>0.98333875709036411</v>
       </c>
       <c r="BD5" s="0">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="BN5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO5" s="0">
         <v>0</v>
       </c>
       <c r="BP5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>1</v>
+        <v>0.78104319114547338</v>
       </c>
       <c r="H6" s="0">
         <v>0</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0</v>
+        <v>0.62378640985514688</v>
       </c>
       <c r="L6" s="0">
         <v>0</v>
@@ -1236,13 +1236,13 @@
         <v>0</v>
       </c>
       <c r="AA6" s="0">
-        <v>0</v>
+        <v>0.69466978390073497</v>
       </c>
       <c r="AB6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="0">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="AH6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI6" s="0">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="BH6" s="0">
-        <v>0</v>
+        <v>0.69421907558103402</v>
       </c>
       <c r="BI6" s="0">
         <v>0</v>
@@ -1379,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="0">
-        <v>1</v>
+        <v>0.76834192242017685</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>1</v>
+        <v>0.54006931172124673</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="R7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" s="0">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="AH7" s="0">
-        <v>0</v>
+        <v>0.6233580582406486</v>
       </c>
       <c r="AI7" s="0">
         <v>0</v>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="AQ7" s="0">
-        <v>0</v>
+        <v>0.50559098539761083</v>
       </c>
       <c r="AR7" s="0">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="BB7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC7" s="0">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="0">
-        <v>1</v>
+        <v>0.5484348120183512</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="0">
         <v>0</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="V8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" s="0">
         <v>0</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="Y8" s="0">
-        <v>0</v>
+        <v>0.80410202471550929</v>
       </c>
       <c r="Z8" s="0">
         <v>0</v>
@@ -1684,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="AM8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN8" s="0">
         <v>0</v>
@@ -1720,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="AY8" s="0">
-        <v>0</v>
+        <v>0.51273376949576788</v>
       </c>
       <c r="AZ8" s="0">
         <v>0</v>
@@ -1756,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="BK8" s="0">
-        <v>0</v>
+        <v>0.75272434018389456</v>
       </c>
       <c r="BL8" s="0">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="0">
-        <v>1</v>
+        <v>0.68024685608036006</v>
       </c>
       <c r="N9" s="0">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="0">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="S9" s="0">
-        <v>0</v>
+        <v>0.54881119514120313</v>
       </c>
       <c r="T9" s="0">
         <v>0</v>
@@ -1839,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="V9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" s="0">
         <v>0</v>
@@ -1848,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="Y9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="0">
         <v>0</v>
@@ -1857,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="AB9" s="0">
-        <v>0</v>
+        <v>0.60179774493000393</v>
       </c>
       <c r="AC9" s="0">
         <v>0</v>
@@ -1878,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="AI9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="0">
         <v>0</v>
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="BH9" s="0">
-        <v>0</v>
+        <v>0.84437954563194861</v>
       </c>
       <c r="BI9" s="0">
         <v>0</v>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0</v>
+        <v>0.75588153503657229</v>
       </c>
       <c r="B10" s="0">
         <v>0</v>
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>0</v>
+        <v>0.6545312285472964</v>
       </c>
       <c r="F10" s="0">
         <v>0</v>
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="0">
         <v>0</v>
@@ -2024,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" s="0">
         <v>0</v>
@@ -2051,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="X10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="0">
         <v>0</v>
@@ -2093,10 +2093,10 @@
         <v>0</v>
       </c>
       <c r="AL10" s="0">
-        <v>0</v>
+        <v>0.87284111847096046</v>
       </c>
       <c r="AM10" s="0">
-        <v>0</v>
+        <v>0.89152844245782492</v>
       </c>
       <c r="AN10" s="0">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="0">
-        <v>0</v>
+        <v>0.5139126669519094</v>
       </c>
       <c r="G11" s="0">
         <v>0</v>
@@ -2215,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="0">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="0">
-        <v>0</v>
+        <v>0.95109751129775422</v>
       </c>
       <c r="U11" s="0">
         <v>0</v>
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="BC11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="0">
         <v>0</v>
@@ -2365,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="BH11" s="0">
-        <v>0</v>
+        <v>0.61849737121718673</v>
       </c>
       <c r="BI11" s="0">
         <v>0</v>
       </c>
       <c r="BJ11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK11" s="0">
         <v>0</v>
@@ -2394,13 +2394,13 @@
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0</v>
+        <v>0.83808540677147003</v>
       </c>
       <c r="B12" s="0">
         <v>0</v>
       </c>
       <c r="C12" s="0">
-        <v>0</v>
+        <v>0.50455017452010709</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="0">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" s="0">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="AB12" s="0">
-        <v>0</v>
+        <v>0.59303683691303521</v>
       </c>
       <c r="AC12" s="0">
         <v>0</v>
@@ -2511,10 +2511,10 @@
         <v>0</v>
       </c>
       <c r="AN12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="0">
-        <v>1</v>
+        <v>0.90201361521717227</v>
       </c>
       <c r="AP12" s="0">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="0">
         <v>0</v>
@@ -2624,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="0">
-        <v>1</v>
+        <v>0.77377185631460543</v>
       </c>
       <c r="J13" s="0">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="0">
-        <v>0</v>
+        <v>0.76329343384408843</v>
       </c>
       <c r="U13" s="0">
         <v>0</v>
@@ -2666,13 +2666,13 @@
         <v>0</v>
       </c>
       <c r="W13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" s="0">
         <v>0</v>
       </c>
       <c r="Y13" s="0">
-        <v>0</v>
+        <v>0.62744813375860975</v>
       </c>
       <c r="Z13" s="0">
         <v>0</v>
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="AP13" s="0">
-        <v>1</v>
+        <v>0.99854391321309133</v>
       </c>
       <c r="AQ13" s="0">
         <v>0</v>
@@ -2827,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="0">
         <v>0</v>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="0">
         <v>0</v>
@@ -2848,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="0">
-        <v>0</v>
+        <v>0.9314956651740216</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="AB14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14" s="0">
         <v>0</v>
@@ -2929,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="AP14" s="0">
-        <v>0</v>
+        <v>0.94590389440953637</v>
       </c>
       <c r="AQ14" s="0">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="BB14" s="0">
-        <v>0</v>
+        <v>0.94074078302825237</v>
       </c>
       <c r="BC14" s="0">
         <v>0</v>
@@ -3039,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="0">
         <v>0</v>
@@ -3051,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
@@ -3075,10 +3075,10 @@
         <v>0</v>
       </c>
       <c r="V15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15" s="0">
-        <v>0</v>
+        <v>0.52907480375936533</v>
       </c>
       <c r="X15" s="0">
         <v>0</v>
@@ -3102,13 +3102,13 @@
         <v>0</v>
       </c>
       <c r="AE15" s="0">
-        <v>0</v>
+        <v>0.56421260749896351</v>
       </c>
       <c r="AF15" s="0">
         <v>0</v>
       </c>
       <c r="AG15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH15" s="0">
         <v>0</v>
@@ -3174,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="BC15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="0">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="BO15" s="0">
-        <v>0</v>
+        <v>0.75332244918274638</v>
       </c>
       <c r="BP15" s="0">
         <v>0</v>
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="0">
         <v>0</v>
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="0">
         <v>0</v>
@@ -3257,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>0</v>
+        <v>0.90245861992651122</v>
       </c>
       <c r="O16" s="0">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="0">
-        <v>1</v>
+        <v>0.76901425189863026</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3302,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="0">
-        <v>0</v>
+        <v>0.58768761021320148</v>
       </c>
       <c r="AD16" s="0">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="U17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" s="0">
         <v>0</v>
@@ -3493,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="X17" s="0">
-        <v>0</v>
+        <v>0.62819078106397053</v>
       </c>
       <c r="Y17" s="0">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AK17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL17" s="0">
         <v>0</v>
@@ -3541,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="AN17" s="0">
-        <v>0</v>
+        <v>0.51675885648250963</v>
       </c>
       <c r="AO17" s="0">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="AQ17" s="0">
-        <v>0</v>
+        <v>0.93398985652277167</v>
       </c>
       <c r="AR17" s="0">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="AX17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="0">
         <v>0</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="BC17" s="0">
-        <v>0</v>
+        <v>0.654984412189625</v>
       </c>
       <c r="BD17" s="0">
         <v>0</v>
@@ -3604,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="BI17" s="0">
-        <v>0</v>
+        <v>0.99533709884083121</v>
       </c>
       <c r="BJ17" s="0">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="0">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="0">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>1</v>
+        <v>0.83074682544909129</v>
       </c>
       <c r="Q18" s="0">
         <v>0</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="0">
-        <v>0</v>
+        <v>0.76363464825002458</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="0">
-        <v>0</v>
+        <v>0.85960875738654763</v>
       </c>
       <c r="AD18" s="0">
         <v>0</v>
@@ -3762,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="AS18" s="0">
-        <v>0</v>
+        <v>0.51506501763631096</v>
       </c>
       <c r="AT18" s="0">
         <v>0</v>
@@ -3783,7 +3783,7 @@
         <v>0</v>
       </c>
       <c r="AZ18" s="0">
-        <v>0</v>
+        <v>0.97593566536988985</v>
       </c>
       <c r="BA18" s="0">
         <v>0</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>1</v>
+        <v>0.88519648777773052</v>
       </c>
       <c r="B19" s="0">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="0">
-        <v>0</v>
+        <v>0.61104941509577415</v>
       </c>
       <c r="J19" s="0">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19" s="0">
         <v>0</v>
@@ -3917,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="AB19" s="0">
-        <v>0</v>
+        <v>0.53047667968165158</v>
       </c>
       <c r="AC19" s="0">
         <v>0</v>
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="AO19" s="0">
-        <v>0</v>
+        <v>0.71282615716913289</v>
       </c>
       <c r="AP19" s="0">
         <v>0</v>
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="AW19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX19" s="0">
         <v>0</v>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="BC19" s="0">
-        <v>0</v>
+        <v>0.76651128724249173</v>
       </c>
       <c r="BD19" s="0">
         <v>0</v>
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="BG19" s="0">
-        <v>0</v>
+        <v>0.68566329598108866</v>
       </c>
       <c r="BH19" s="0">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="BK19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL19" s="0">
         <v>0</v>
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="BN19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO19" s="0">
         <v>0</v>
@@ -4072,13 +4072,13 @@
         <v>0</v>
       </c>
       <c r="K20" s="0">
-        <v>0</v>
+        <v>0.83485040780269504</v>
       </c>
       <c r="L20" s="0">
         <v>0</v>
       </c>
       <c r="M20" s="0">
-        <v>0</v>
+        <v>0.71722432442123418</v>
       </c>
       <c r="N20" s="0">
         <v>0</v>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>0</v>
+        <v>0.82784647812166257</v>
       </c>
       <c r="S20" s="0">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="0">
-        <v>0</v>
+        <v>0.5410590579883815</v>
       </c>
       <c r="AL20" s="0">
         <v>0</v>
@@ -4174,7 +4174,7 @@
         <v>0</v>
       </c>
       <c r="AS20" s="0">
-        <v>0</v>
+        <v>0.76327024499487561</v>
       </c>
       <c r="AT20" s="0">
         <v>0</v>
@@ -4192,10 +4192,10 @@
         <v>0</v>
       </c>
       <c r="AY20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA20" s="0">
         <v>0</v>
@@ -4231,7 +4231,7 @@
         <v>0</v>
       </c>
       <c r="BL20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM20" s="0">
         <v>0</v>
@@ -4296,7 +4296,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" s="0">
         <v>0</v>
@@ -4362,13 +4362,13 @@
         <v>0</v>
       </c>
       <c r="AM21" s="0">
-        <v>0</v>
+        <v>0.78133730852221617</v>
       </c>
       <c r="AN21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP21" s="0">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>0</v>
       </c>
       <c r="AS21" s="0">
-        <v>0</v>
+        <v>0.53819499859182396</v>
       </c>
       <c r="AT21" s="0">
         <v>0</v>
@@ -4401,7 +4401,7 @@
         <v>0</v>
       </c>
       <c r="AZ21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA21" s="0">
         <v>0</v>
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="BI21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ21" s="0">
         <v>0</v>
@@ -4475,10 +4475,10 @@
         <v>0</v>
       </c>
       <c r="H22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" s="0">
         <v>0</v>
@@ -4496,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" s="0">
         <v>0</v>
@@ -4589,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="AT22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU22" s="0">
         <v>0</v>
@@ -4601,7 +4601,7 @@
         <v>0</v>
       </c>
       <c r="AX22" s="0">
-        <v>0</v>
+        <v>0.92413229380969342</v>
       </c>
       <c r="AY22" s="0">
         <v>0</v>
@@ -4619,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="BD22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE22" s="0">
         <v>0</v>
@@ -4628,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="BG22" s="0">
-        <v>0</v>
+        <v>0.95051501477016132</v>
       </c>
       <c r="BH22" s="0">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="BO22" s="0">
-        <v>1</v>
+        <v>0.91928315314728948</v>
       </c>
       <c r="BP22" s="0">
         <v>0</v>
@@ -4696,13 +4696,13 @@
         <v>0</v>
       </c>
       <c r="M23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" s="0">
         <v>0</v>
       </c>
       <c r="O23" s="0">
-        <v>0</v>
+        <v>0.94384584951347583</v>
       </c>
       <c r="P23" s="0">
         <v>0</v>
@@ -4714,7 +4714,7 @@
         <v>0</v>
       </c>
       <c r="S23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" s="0">
         <v>0</v>
@@ -4732,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="Y23" s="0">
-        <v>1</v>
+        <v>0.64179148099425087</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4768,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="AK23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23" s="0">
         <v>0</v>
@@ -4843,7 +4843,7 @@
         <v>0</v>
       </c>
       <c r="BJ23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK23" s="0">
         <v>0</v>
@@ -4878,7 +4878,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="0">
         <v>0</v>
@@ -4893,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="0">
         <v>0</v>
@@ -4914,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="0">
-        <v>0</v>
+        <v>0.77027068286272293</v>
       </c>
       <c r="R24" s="0">
         <v>0</v>
@@ -4962,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="AG24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH24" s="0">
         <v>0</v>
@@ -4974,7 +4974,7 @@
         <v>0</v>
       </c>
       <c r="AK24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL24" s="0">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>0</v>
       </c>
       <c r="AU24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV24" s="0">
         <v>0</v>
@@ -5022,7 +5022,7 @@
         <v>0</v>
       </c>
       <c r="BA24" s="0">
-        <v>0</v>
+        <v>0.75425671705206332</v>
       </c>
       <c r="BB24" s="0">
         <v>0</v>
@@ -5040,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="BG24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH24" s="0">
         <v>0</v>
@@ -5078,7 +5078,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="0">
-        <v>0</v>
+        <v>0.78811613445947892</v>
       </c>
       <c r="D25" s="0">
         <v>0</v>
@@ -5093,10 +5093,10 @@
         <v>0</v>
       </c>
       <c r="H25" s="0">
-        <v>0</v>
+        <v>0.6889283505017918</v>
       </c>
       <c r="I25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" s="0">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="0">
-        <v>0</v>
+        <v>0.63392755122227573</v>
       </c>
       <c r="N25" s="0">
         <v>0</v>
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>1</v>
+        <v>0.74597997305783914</v>
       </c>
       <c r="X25" s="0">
         <v>0</v>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="BA25" s="0">
-        <v>0</v>
+        <v>0.74828131754028204</v>
       </c>
       <c r="BB25" s="0">
         <v>0</v>
@@ -5261,13 +5261,13 @@
         <v>0</v>
       </c>
       <c r="BL25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM25" s="0">
         <v>0</v>
       </c>
       <c r="BN25" s="0">
-        <v>0</v>
+        <v>0.54065019801959702</v>
       </c>
       <c r="BO25" s="0">
         <v>0</v>
@@ -5356,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>1</v>
+        <v>0.98040820366117309</v>
       </c>
       <c r="AB26" s="0">
         <v>0</v>
@@ -5410,7 +5410,7 @@
         <v>0</v>
       </c>
       <c r="AS26" s="0">
-        <v>0</v>
+        <v>0.87116509942907883</v>
       </c>
       <c r="AT26" s="0">
         <v>0</v>
@@ -5437,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="BB26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC26" s="0">
         <v>0</v>
@@ -5461,7 +5461,7 @@
         <v>0</v>
       </c>
       <c r="BJ26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK26" s="0">
         <v>0</v>
@@ -5487,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="0">
-        <v>0</v>
+        <v>0.68543926620180939</v>
       </c>
       <c r="C27" s="0">
         <v>0</v>
@@ -5499,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="0">
-        <v>0</v>
+        <v>0.72507048242232619</v>
       </c>
       <c r="G27" s="0">
         <v>0</v>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="Z27" s="0">
-        <v>1</v>
+        <v>0.80915789078852463</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
@@ -5601,7 +5601,7 @@
         <v>0</v>
       </c>
       <c r="AN27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO27" s="0">
         <v>0</v>
@@ -5631,16 +5631,16 @@
         <v>0</v>
       </c>
       <c r="AX27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY27" s="0">
         <v>0</v>
       </c>
       <c r="AZ27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB27" s="0">
         <v>0</v>
@@ -5699,13 +5699,13 @@
         <v>0</v>
       </c>
       <c r="D28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="0">
         <v>0</v>
       </c>
       <c r="F28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" s="0">
         <v>0</v>
@@ -5714,7 +5714,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="0">
-        <v>0</v>
+        <v>0.53941206866346181</v>
       </c>
       <c r="J28" s="0">
         <v>0</v>
@@ -5723,13 +5723,13 @@
         <v>0</v>
       </c>
       <c r="L28" s="0">
-        <v>0</v>
+        <v>0.99081090227131197</v>
       </c>
       <c r="M28" s="0">
         <v>0</v>
       </c>
       <c r="N28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" s="0">
         <v>0</v>
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="S28" s="0">
-        <v>0</v>
+        <v>0.73342381587678362</v>
       </c>
       <c r="T28" s="0">
         <v>0</v>
@@ -5774,10 +5774,10 @@
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>0</v>
+        <v>0.67670096774858635</v>
       </c>
       <c r="AD28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5804,7 +5804,7 @@
         <v>0</v>
       </c>
       <c r="AM28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN28" s="0">
         <v>0</v>
@@ -5911,7 +5911,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" s="0">
         <v>0</v>
@@ -5941,13 +5941,13 @@
         <v>0</v>
       </c>
       <c r="P29" s="0">
-        <v>0</v>
+        <v>0.62665769808669447</v>
       </c>
       <c r="Q29" s="0">
         <v>0</v>
       </c>
       <c r="R29" s="0">
-        <v>0</v>
+        <v>0.7667087404379771</v>
       </c>
       <c r="S29" s="0">
         <v>0</v>
@@ -5977,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="AB29" s="0">
-        <v>0</v>
+        <v>0.81406987504595119</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
@@ -5995,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="AH29" s="0">
-        <v>0</v>
+        <v>0.98755434404007503</v>
       </c>
       <c r="AI29" s="0">
         <v>0</v>
@@ -6007,13 +6007,13 @@
         <v>0</v>
       </c>
       <c r="AL29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29" s="0">
         <v>0</v>
       </c>
       <c r="AN29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO29" s="0">
         <v>0</v>
@@ -6061,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="BD29" s="0">
-        <v>0</v>
+        <v>0.92274649479067861</v>
       </c>
       <c r="BE29" s="0">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="BG29" s="0">
-        <v>0</v>
+        <v>0.80528819915186878</v>
       </c>
       <c r="BH29" s="0">
         <v>0</v>
@@ -6183,7 +6183,7 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="0">
         <v>0</v>
@@ -6219,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="AN30" s="0">
-        <v>0</v>
+        <v>0.67096864717974192</v>
       </c>
       <c r="AO30" s="0">
         <v>0</v>
@@ -6279,7 +6279,7 @@
         <v>0</v>
       </c>
       <c r="BH30" s="0">
-        <v>0</v>
+        <v>0.65561271093711904</v>
       </c>
       <c r="BI30" s="0">
         <v>0</v>
@@ -6294,10 +6294,10 @@
         <v>0</v>
       </c>
       <c r="BM30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO30" s="0">
         <v>0</v>
@@ -6314,7 +6314,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" s="0">
         <v>0</v>
@@ -6350,7 +6350,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="0">
-        <v>0</v>
+        <v>0.65373891778132065</v>
       </c>
       <c r="P31" s="0">
         <v>0</v>
@@ -6407,13 +6407,13 @@
         <v>0</v>
       </c>
       <c r="AH31" s="0">
-        <v>0</v>
+        <v>0.94045830941917852</v>
       </c>
       <c r="AI31" s="0">
         <v>0</v>
       </c>
       <c r="AJ31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK31" s="0">
         <v>0</v>
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="AN31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO31" s="0">
         <v>0</v>
@@ -6467,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="BB31" s="0">
-        <v>0</v>
+        <v>0.77890988564494124</v>
       </c>
       <c r="BC31" s="0">
         <v>0</v>
@@ -6485,7 +6485,7 @@
         <v>0</v>
       </c>
       <c r="BH31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI31" s="0">
         <v>0</v>
@@ -6497,7 +6497,7 @@
         <v>0</v>
       </c>
       <c r="BL31" s="0">
-        <v>0</v>
+        <v>0.78444527351596016</v>
       </c>
       <c r="BM31" s="0">
         <v>0</v>
@@ -6523,7 +6523,7 @@
         <v>0</v>
       </c>
       <c r="D32" s="0">
-        <v>0</v>
+        <v>0.58983137582562484</v>
       </c>
       <c r="E32" s="0">
         <v>0</v>
@@ -6610,7 +6610,7 @@
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>1</v>
+        <v>0.60904864053247132</v>
       </c>
       <c r="AH32" s="0">
         <v>0</v>
@@ -6625,7 +6625,7 @@
         <v>0</v>
       </c>
       <c r="AL32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32" s="0">
         <v>0</v>
@@ -6679,7 +6679,7 @@
         <v>0</v>
       </c>
       <c r="BD32" s="0">
-        <v>0</v>
+        <v>0.89688483069189551</v>
       </c>
       <c r="BE32" s="0">
         <v>0</v>
@@ -6720,13 +6720,13 @@
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B33" s="0">
         <v>0</v>
       </c>
       <c r="C33" s="0">
-        <v>0</v>
+        <v>0.72122078337607454</v>
       </c>
       <c r="D33" s="0">
         <v>0</v>
@@ -6762,7 +6762,7 @@
         <v>0</v>
       </c>
       <c r="O33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" s="0">
         <v>0</v>
@@ -6789,7 +6789,7 @@
         <v>0</v>
       </c>
       <c r="X33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="0">
         <v>0</v>
@@ -6813,7 +6813,7 @@
         <v>0</v>
       </c>
       <c r="AF33" s="0">
-        <v>1</v>
+        <v>0.60370814528552597</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
@@ -6822,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="AI33" s="0">
-        <v>0</v>
+        <v>0.82865266411040972</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6840,7 +6840,7 @@
         <v>0</v>
       </c>
       <c r="AO33" s="0">
-        <v>0</v>
+        <v>0.89093079592349311</v>
       </c>
       <c r="AP33" s="0">
         <v>0</v>
@@ -6876,19 +6876,19 @@
         <v>0</v>
       </c>
       <c r="BA33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB33" s="0">
         <v>0</v>
       </c>
       <c r="BC33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD33" s="0">
         <v>0</v>
       </c>
       <c r="BE33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF33" s="0">
         <v>0</v>
@@ -6900,7 +6900,7 @@
         <v>0</v>
       </c>
       <c r="BI33" s="0">
-        <v>0</v>
+        <v>0.5381747747592921</v>
       </c>
       <c r="BJ33" s="0">
         <v>0</v>
@@ -6909,7 +6909,7 @@
         <v>0</v>
       </c>
       <c r="BL33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM33" s="0">
         <v>0</v>
@@ -6935,16 +6935,16 @@
         <v>0</v>
       </c>
       <c r="D34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" s="0">
         <v>0</v>
       </c>
       <c r="F34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" s="0">
-        <v>0</v>
+        <v>0.63016525641433985</v>
       </c>
       <c r="H34" s="0">
         <v>0</v>
@@ -7010,13 +7010,13 @@
         <v>0</v>
       </c>
       <c r="AC34" s="0">
-        <v>0</v>
+        <v>0.61386954386758519</v>
       </c>
       <c r="AD34" s="0">
         <v>0</v>
       </c>
       <c r="AE34" s="0">
-        <v>0</v>
+        <v>0.94464064136158976</v>
       </c>
       <c r="AF34" s="0">
         <v>0</v>
@@ -7031,13 +7031,13 @@
         <v>0</v>
       </c>
       <c r="AJ34" s="0">
-        <v>0</v>
+        <v>0.66888648229020353</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
       </c>
       <c r="AL34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34" s="0">
         <v>0</v>
@@ -7076,7 +7076,7 @@
         <v>0</v>
       </c>
       <c r="AY34" s="0">
-        <v>0</v>
+        <v>0.64803285460248672</v>
       </c>
       <c r="AZ34" s="0">
         <v>0</v>
@@ -7085,7 +7085,7 @@
         <v>0</v>
       </c>
       <c r="BB34" s="0">
-        <v>0</v>
+        <v>0.5313557805107374</v>
       </c>
       <c r="BC34" s="0">
         <v>0</v>
@@ -7109,7 +7109,7 @@
         <v>0</v>
       </c>
       <c r="BJ34" s="0">
-        <v>0</v>
+        <v>0.75952494140323346</v>
       </c>
       <c r="BK34" s="0">
         <v>0</v>
@@ -7156,7 +7156,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" s="0">
         <v>0</v>
@@ -7228,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>0</v>
+        <v>0.71584192180400907</v>
       </c>
       <c r="AH35" s="0">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7273,7 +7273,7 @@
         <v>0</v>
       </c>
       <c r="AV35" s="0">
-        <v>0</v>
+        <v>0.61750705851010967</v>
       </c>
       <c r="AW35" s="0">
         <v>0</v>
@@ -7282,7 +7282,7 @@
         <v>0</v>
       </c>
       <c r="AY35" s="0">
-        <v>0</v>
+        <v>0.53533576187175291</v>
       </c>
       <c r="AZ35" s="0">
         <v>0</v>
@@ -7347,7 +7347,7 @@
         <v>0</v>
       </c>
       <c r="D36" s="0">
-        <v>0</v>
+        <v>0.72841411198359252</v>
       </c>
       <c r="E36" s="0">
         <v>0</v>
@@ -7428,7 +7428,7 @@
         <v>0</v>
       </c>
       <c r="AE36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF36" s="0">
         <v>0</v>
@@ -7437,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>0</v>
+        <v>0.78575331416459915</v>
       </c>
       <c r="AI36" s="0">
         <v>0</v>
@@ -7494,7 +7494,7 @@
         <v>0</v>
       </c>
       <c r="BA36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB36" s="0">
         <v>0</v>
@@ -7533,7 +7533,7 @@
         <v>0</v>
       </c>
       <c r="BN36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO36" s="0">
         <v>0</v>
@@ -7553,7 +7553,7 @@
         <v>0</v>
       </c>
       <c r="D37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" s="0">
         <v>0</v>
@@ -7592,7 +7592,7 @@
         <v>0</v>
       </c>
       <c r="Q37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R37" s="0">
         <v>0</v>
@@ -7601,7 +7601,7 @@
         <v>0</v>
       </c>
       <c r="T37" s="0">
-        <v>0</v>
+        <v>0.60765563338858042</v>
       </c>
       <c r="U37" s="0">
         <v>0</v>
@@ -7610,10 +7610,10 @@
         <v>0</v>
       </c>
       <c r="W37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y37" s="0">
         <v>0</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ37" s="0">
         <v>0</v>
@@ -7673,7 +7673,7 @@
         <v>0</v>
       </c>
       <c r="AR37" s="0">
-        <v>0</v>
+        <v>0.54112436933020691</v>
       </c>
       <c r="AS37" s="0">
         <v>0</v>
@@ -7712,7 +7712,7 @@
         <v>0</v>
       </c>
       <c r="BE37" s="0">
-        <v>0</v>
+        <v>0.9249683700452711</v>
       </c>
       <c r="BF37" s="0">
         <v>0</v>
@@ -7777,7 +7777,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="0">
-        <v>0</v>
+        <v>0.51695443032767885</v>
       </c>
       <c r="K38" s="0">
         <v>0</v>
@@ -7834,7 +7834,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD38" s="0">
         <v>0</v>
@@ -7843,13 +7843,13 @@
         <v>0</v>
       </c>
       <c r="AF38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG38" s="0">
         <v>0</v>
       </c>
       <c r="AH38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI38" s="0">
         <v>0</v>
@@ -7864,16 +7864,16 @@
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>0</v>
+        <v>0.80529392617317885</v>
       </c>
       <c r="AN38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
       </c>
       <c r="AP38" s="0">
-        <v>0</v>
+        <v>0.70408440744392109</v>
       </c>
       <c r="AQ38" s="0">
         <v>0</v>
@@ -7906,7 +7906,7 @@
         <v>0</v>
       </c>
       <c r="BA38" s="0">
-        <v>0</v>
+        <v>0.52295113017786432</v>
       </c>
       <c r="BB38" s="0">
         <v>0</v>
@@ -7927,7 +7927,7 @@
         <v>0</v>
       </c>
       <c r="BH38" s="0">
-        <v>1</v>
+        <v>0.79524071530095974</v>
       </c>
       <c r="BI38" s="0">
         <v>0</v>
@@ -7959,7 +7959,7 @@
         <v>0</v>
       </c>
       <c r="B39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" s="0">
         <v>0</v>
@@ -7977,13 +7977,13 @@
         <v>0</v>
       </c>
       <c r="H39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" s="0">
         <v>0</v>
       </c>
       <c r="J39" s="0">
-        <v>0</v>
+        <v>0.99503903978907893</v>
       </c>
       <c r="K39" s="0">
         <v>0</v>
@@ -8016,7 +8016,7 @@
         <v>0</v>
       </c>
       <c r="U39" s="0">
-        <v>0</v>
+        <v>0.81818143332677107</v>
       </c>
       <c r="V39" s="0">
         <v>0</v>
@@ -8037,7 +8037,7 @@
         <v>0</v>
       </c>
       <c r="AB39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC39" s="0">
         <v>0</v>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="AL39" s="0">
-        <v>0</v>
+        <v>0.82129036156997826</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
@@ -8097,7 +8097,7 @@
         <v>0</v>
       </c>
       <c r="AV39" s="0">
-        <v>0</v>
+        <v>0.64584435504306437</v>
       </c>
       <c r="AW39" s="0">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="BE39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF39" s="0">
         <v>0</v>
@@ -8148,10 +8148,10 @@
         <v>0</v>
       </c>
       <c r="BM39" s="0">
-        <v>0</v>
+        <v>0.9978162347119528</v>
       </c>
       <c r="BN39" s="0">
-        <v>0</v>
+        <v>0.57565475908514929</v>
       </c>
       <c r="BO39" s="0">
         <v>0</v>
@@ -8195,7 +8195,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" s="0">
         <v>0</v>
@@ -8210,7 +8210,7 @@
         <v>0</v>
       </c>
       <c r="Q40" s="0">
-        <v>0</v>
+        <v>0.99771854125737369</v>
       </c>
       <c r="R40" s="0">
         <v>0</v>
@@ -8222,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="U40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V40" s="0">
         <v>0</v>
@@ -8240,19 +8240,19 @@
         <v>0</v>
       </c>
       <c r="AA40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB40" s="0">
         <v>0</v>
       </c>
       <c r="AC40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD40" s="0">
-        <v>0</v>
+        <v>0.63363330222882164</v>
       </c>
       <c r="AE40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF40" s="0">
         <v>0</v>
@@ -8273,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40" s="0">
         <v>0</v>
@@ -8285,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="AP40" s="0">
-        <v>0</v>
+        <v>0.90499081253553604</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8309,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="AX40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY40" s="0">
         <v>0</v>
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="BL40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM40" s="0">
         <v>0</v>
@@ -8401,7 +8401,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="0">
-        <v>1</v>
+        <v>0.95055099457236469</v>
       </c>
       <c r="M41" s="0">
         <v>0</v>
@@ -8422,13 +8422,13 @@
         <v>0</v>
       </c>
       <c r="S41" s="0">
-        <v>0</v>
+        <v>0.90897268679996368</v>
       </c>
       <c r="T41" s="0">
         <v>0</v>
       </c>
       <c r="U41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V41" s="0">
         <v>0</v>
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="AG41" s="0">
-        <v>0</v>
+        <v>0.74766461765832337</v>
       </c>
       <c r="AH41" s="0">
         <v>0</v>
@@ -8610,10 +8610,10 @@
         <v>0</v>
       </c>
       <c r="M42" s="0">
-        <v>1</v>
+        <v>0.83087629991584322</v>
       </c>
       <c r="N42" s="0">
-        <v>0</v>
+        <v>0.7868235447841867</v>
       </c>
       <c r="O42" s="0">
         <v>0</v>
@@ -8685,13 +8685,13 @@
         <v>0</v>
       </c>
       <c r="AL42" s="0">
-        <v>0</v>
+        <v>0.7027588574200021</v>
       </c>
       <c r="AM42" s="0">
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>0</v>
+        <v>0.74265743937211104</v>
       </c>
       <c r="AO42" s="0">
         <v>0</v>
@@ -8700,7 +8700,7 @@
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR42" s="0">
         <v>0</v>
@@ -8745,7 +8745,7 @@
         <v>0</v>
       </c>
       <c r="BF42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG42" s="0">
         <v>0</v>
@@ -8798,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="0">
-        <v>0</v>
+        <v>0.74604017384975874</v>
       </c>
       <c r="H43" s="0">
         <v>0</v>
@@ -8828,7 +8828,7 @@
         <v>0</v>
       </c>
       <c r="Q43" s="0">
-        <v>0</v>
+        <v>0.72749003917579191</v>
       </c>
       <c r="R43" s="0">
         <v>0</v>
@@ -8903,13 +8903,13 @@
         <v>0</v>
       </c>
       <c r="AP43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS43" s="0">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="AW43" s="0">
-        <v>0</v>
+        <v>0.9912767771465425</v>
       </c>
       <c r="AX43" s="0">
         <v>0</v>
@@ -8933,10 +8933,10 @@
         <v>0</v>
       </c>
       <c r="AZ43" s="0">
-        <v>0</v>
+        <v>0.81297072199291831</v>
       </c>
       <c r="BA43" s="0">
-        <v>0</v>
+        <v>0.72503261517965734</v>
       </c>
       <c r="BB43" s="0">
         <v>0</v>
@@ -8954,7 +8954,7 @@
         <v>0</v>
       </c>
       <c r="BG43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH43" s="0">
         <v>0</v>
@@ -8972,7 +8972,7 @@
         <v>0</v>
       </c>
       <c r="BM43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN43" s="0">
         <v>0</v>
@@ -8981,7 +8981,7 @@
         <v>0</v>
       </c>
       <c r="BP43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -8995,7 +8995,7 @@
         <v>0</v>
       </c>
       <c r="D44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" s="0">
         <v>0</v>
@@ -9094,7 +9094,7 @@
         <v>0</v>
       </c>
       <c r="AK44" s="0">
-        <v>0</v>
+        <v>0.5439011051096927</v>
       </c>
       <c r="AL44" s="0">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>0</v>
       </c>
       <c r="AQ44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
@@ -9154,19 +9154,19 @@
         <v>0</v>
       </c>
       <c r="BE44" s="0">
-        <v>0</v>
+        <v>0.87408785053213434</v>
       </c>
       <c r="BF44" s="0">
         <v>0</v>
       </c>
       <c r="BG44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH44" s="0">
         <v>0</v>
       </c>
       <c r="BI44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ44" s="0">
         <v>0</v>
@@ -9243,16 +9243,16 @@
         <v>0</v>
       </c>
       <c r="R45" s="0">
-        <v>0</v>
+        <v>0.84778974364939474</v>
       </c>
       <c r="S45" s="0">
         <v>0</v>
       </c>
       <c r="T45" s="0">
-        <v>0</v>
+        <v>0.65070040870322798</v>
       </c>
       <c r="U45" s="0">
-        <v>0</v>
+        <v>0.94746681382366327</v>
       </c>
       <c r="V45" s="0">
         <v>0</v>
@@ -9267,7 +9267,7 @@
         <v>0</v>
       </c>
       <c r="Z45" s="0">
-        <v>0</v>
+        <v>0.82429761368450061</v>
       </c>
       <c r="AA45" s="0">
         <v>0</v>
@@ -9327,7 +9327,7 @@
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU45" s="0">
         <v>0</v>
@@ -9357,7 +9357,7 @@
         <v>0</v>
       </c>
       <c r="BD45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE45" s="0">
         <v>0</v>
@@ -9390,7 +9390,7 @@
         <v>0</v>
       </c>
       <c r="BO45" s="0">
-        <v>0</v>
+        <v>0.76455731587742859</v>
       </c>
       <c r="BP45" s="0">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="B46" s="0">
-        <v>0</v>
+        <v>0.60036946757432641</v>
       </c>
       <c r="C46" s="0">
         <v>0</v>
@@ -9461,7 +9461,7 @@
         <v>0</v>
       </c>
       <c r="V46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W46" s="0">
         <v>0</v>
@@ -9530,7 +9530,7 @@
         <v>0</v>
       </c>
       <c r="AS46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
@@ -9539,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="AV46" s="0">
-        <v>0</v>
+        <v>0.81144763391836316</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9566,7 +9566,7 @@
         <v>0</v>
       </c>
       <c r="BE46" s="0">
-        <v>1</v>
+        <v>0.50852479878472401</v>
       </c>
       <c r="BF46" s="0">
         <v>0</v>
@@ -9584,7 +9584,7 @@
         <v>0</v>
       </c>
       <c r="BK46" s="0">
-        <v>0</v>
+        <v>0.52698838156249828</v>
       </c>
       <c r="BL46" s="0">
         <v>0</v>
@@ -9673,7 +9673,7 @@
         <v>0</v>
       </c>
       <c r="X47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y47" s="0">
         <v>0</v>
@@ -9745,7 +9745,7 @@
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>0</v>
+        <v>0.63769467418178127</v>
       </c>
       <c r="AW47" s="0">
         <v>0</v>
@@ -9766,7 +9766,7 @@
         <v>0</v>
       </c>
       <c r="BC47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD47" s="0">
         <v>0</v>
@@ -9787,7 +9787,7 @@
         <v>0</v>
       </c>
       <c r="BJ47" s="0">
-        <v>0</v>
+        <v>0.90259449379894763</v>
       </c>
       <c r="BK47" s="0">
         <v>0</v>
@@ -9912,7 +9912,7 @@
         <v>0</v>
       </c>
       <c r="AI48" s="0">
-        <v>0</v>
+        <v>0.63861201293197878</v>
       </c>
       <c r="AJ48" s="0">
         <v>0</v>
@@ -9924,7 +9924,7 @@
         <v>0</v>
       </c>
       <c r="AM48" s="0">
-        <v>0</v>
+        <v>0.86248839056447912</v>
       </c>
       <c r="AN48" s="0">
         <v>0</v>
@@ -9945,19 +9945,19 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>0</v>
+        <v>0.68432634894908018</v>
       </c>
       <c r="AU48" s="0">
-        <v>0</v>
+        <v>0.56221397626275182</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>0</v>
+        <v>0.56534412944309131</v>
       </c>
       <c r="AX48" s="0">
-        <v>1</v>
+        <v>0.57436520815327174</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -9984,7 +9984,7 @@
         <v>0</v>
       </c>
       <c r="BG48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH48" s="0">
         <v>0</v>
@@ -10070,7 +10070,7 @@
         <v>0</v>
       </c>
       <c r="S49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T49" s="0">
         <v>0</v>
@@ -10142,7 +10142,7 @@
         <v>0</v>
       </c>
       <c r="AQ49" s="0">
-        <v>0</v>
+        <v>0.99700562420127281</v>
       </c>
       <c r="AR49" s="0">
         <v>0</v>
@@ -10157,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="AV49" s="0">
-        <v>0</v>
+        <v>0.71083468307237285</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
@@ -10166,7 +10166,7 @@
         <v>0</v>
       </c>
       <c r="AY49" s="0">
-        <v>0</v>
+        <v>0.55323316887286378</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10181,7 +10181,7 @@
         <v>0</v>
       </c>
       <c r="BD49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE49" s="0">
         <v>0</v>
@@ -10270,7 +10270,7 @@
         <v>0</v>
       </c>
       <c r="Q50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R50" s="0">
         <v>0</v>
@@ -10285,7 +10285,7 @@
         <v>0</v>
       </c>
       <c r="V50" s="0">
-        <v>0</v>
+        <v>0.78505976464504901</v>
       </c>
       <c r="W50" s="0">
         <v>0</v>
@@ -10300,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="AA50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB50" s="0">
         <v>0</v>
@@ -10339,7 +10339,7 @@
         <v>0</v>
       </c>
       <c r="AN50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO50" s="0">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>1</v>
+        <v>0.58683167000737924</v>
       </c>
       <c r="AW50" s="0">
         <v>0</v>
@@ -10372,10 +10372,10 @@
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>1</v>
+        <v>0.68101915297976223</v>
       </c>
       <c r="AZ50" s="0">
-        <v>0</v>
+        <v>0.60021904816244476</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10393,7 +10393,7 @@
         <v>0</v>
       </c>
       <c r="BF50" s="0">
-        <v>0</v>
+        <v>0.98113312051436208</v>
       </c>
       <c r="BG50" s="0">
         <v>0</v>
@@ -10408,7 +10408,7 @@
         <v>0</v>
       </c>
       <c r="BK50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL50" s="0">
         <v>0</v>
@@ -10431,7 +10431,7 @@
         <v>0</v>
       </c>
       <c r="B51" s="0">
-        <v>0</v>
+        <v>0.8141520450799461</v>
       </c>
       <c r="C51" s="0">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="0">
-        <v>0</v>
+        <v>0.68066493761630109</v>
       </c>
       <c r="I51" s="0">
         <v>0</v>
@@ -10485,7 +10485,7 @@
         <v>0</v>
       </c>
       <c r="T51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U51" s="0">
         <v>0</v>
@@ -10527,10 +10527,10 @@
         <v>0</v>
       </c>
       <c r="AH51" s="0">
-        <v>0</v>
+        <v>0.64702478648065809</v>
       </c>
       <c r="AI51" s="0">
-        <v>0</v>
+        <v>0.68624356128754993</v>
       </c>
       <c r="AJ51" s="0">
         <v>0</v>
@@ -10572,16 +10572,16 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>0</v>
+        <v>0.53446923658829304</v>
       </c>
       <c r="AX51" s="0">
-        <v>1</v>
+        <v>0.5239801801874383</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0.79077506639376638</v>
       </c>
       <c r="BA51" s="0">
         <v>0</v>
@@ -10608,7 +10608,7 @@
         <v>0</v>
       </c>
       <c r="BI51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ51" s="0">
         <v>0</v>
@@ -10685,16 +10685,16 @@
         <v>0</v>
       </c>
       <c r="R52" s="0">
-        <v>0</v>
+        <v>0.76222309997649607</v>
       </c>
       <c r="S52" s="0">
         <v>0</v>
       </c>
       <c r="T52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V52" s="0">
         <v>0</v>
@@ -10712,7 +10712,7 @@
         <v>0</v>
       </c>
       <c r="AA52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB52" s="0">
         <v>0</v>
@@ -10760,7 +10760,7 @@
         <v>0</v>
       </c>
       <c r="AQ52" s="0">
-        <v>0</v>
+        <v>0.6086373081411145</v>
       </c>
       <c r="AR52" s="0">
         <v>0</v>
@@ -10781,19 +10781,19 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>0</v>
+        <v>0.93289861914123251</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0.93567647871190429</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>0</v>
+        <v>0.93145491091368904</v>
       </c>
       <c r="BB52" s="0">
-        <v>0</v>
+        <v>0.66500364749258778</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10909,16 +10909,16 @@
         <v>0</v>
       </c>
       <c r="X53" s="0">
-        <v>0</v>
+        <v>0.71412471262566291</v>
       </c>
       <c r="Y53" s="0">
-        <v>0</v>
+        <v>0.5532730017042633</v>
       </c>
       <c r="Z53" s="0">
         <v>0</v>
       </c>
       <c r="AA53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB53" s="0">
         <v>0</v>
@@ -10936,7 +10936,7 @@
         <v>0</v>
       </c>
       <c r="AG53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH53" s="0">
         <v>0</v>
@@ -10945,13 +10945,13 @@
         <v>0</v>
       </c>
       <c r="AJ53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK53" s="0">
         <v>0</v>
       </c>
       <c r="AL53" s="0">
-        <v>0</v>
+        <v>0.633888776148264</v>
       </c>
       <c r="AM53" s="0">
         <v>0</v>
@@ -10966,7 +10966,7 @@
         <v>0</v>
       </c>
       <c r="AQ53" s="0">
-        <v>0</v>
+        <v>0.52164388324305189</v>
       </c>
       <c r="AR53" s="0">
         <v>0</v>
@@ -10993,7 +10993,7 @@
         <v>0</v>
       </c>
       <c r="AZ53" s="0">
-        <v>0</v>
+        <v>0.64017113364175482</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
@@ -11029,7 +11029,7 @@
         <v>0</v>
       </c>
       <c r="BL53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM53" s="0">
         <v>0</v>
@@ -11064,7 +11064,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" s="0">
         <v>0</v>
@@ -11085,7 +11085,7 @@
         <v>0</v>
       </c>
       <c r="N54" s="0">
-        <v>0</v>
+        <v>0.78197933006332443</v>
       </c>
       <c r="O54" s="0">
         <v>0</v>
@@ -11121,7 +11121,7 @@
         <v>0</v>
       </c>
       <c r="Z54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA54" s="0">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>0</v>
       </c>
       <c r="AE54" s="0">
-        <v>0</v>
+        <v>0.67426760119621587</v>
       </c>
       <c r="AF54" s="0">
         <v>0</v>
@@ -11145,7 +11145,7 @@
         <v>0</v>
       </c>
       <c r="AH54" s="0">
-        <v>0</v>
+        <v>0.86804912280893565</v>
       </c>
       <c r="AI54" s="0">
         <v>0</v>
@@ -11199,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>0</v>
+        <v>0.54034566840796394</v>
       </c>
       <c r="BA54" s="0">
         <v>0</v>
@@ -11208,7 +11208,7 @@
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>1</v>
+        <v>0.67000075931924696</v>
       </c>
       <c r="BD54" s="0">
         <v>0</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="BF54" s="0">
-        <v>0</v>
+        <v>0.70712891835470404</v>
       </c>
       <c r="BG54" s="0">
         <v>0</v>
@@ -11264,7 +11264,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="0">
-        <v>0</v>
+        <v>0.92167075961232481</v>
       </c>
       <c r="F55" s="0">
         <v>0</v>
@@ -11282,7 +11282,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" s="0">
         <v>0</v>
@@ -11294,19 +11294,19 @@
         <v>0</v>
       </c>
       <c r="O55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P55" s="0">
         <v>0</v>
       </c>
       <c r="Q55" s="0">
-        <v>0</v>
+        <v>0.93106733867712865</v>
       </c>
       <c r="R55" s="0">
         <v>0</v>
       </c>
       <c r="S55" s="0">
-        <v>0</v>
+        <v>0.59808881119679069</v>
       </c>
       <c r="T55" s="0">
         <v>0</v>
@@ -11348,7 +11348,7 @@
         <v>0</v>
       </c>
       <c r="AG55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH55" s="0">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="AU55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV55" s="0">
         <v>0</v>
@@ -11411,7 +11411,7 @@
         <v>0</v>
       </c>
       <c r="BB55" s="0">
-        <v>1</v>
+        <v>0.54801707614336248</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
@@ -11438,7 +11438,7 @@
         <v>0</v>
       </c>
       <c r="BK55" s="0">
-        <v>0</v>
+        <v>0.82099737056204758</v>
       </c>
       <c r="BL55" s="0">
         <v>0</v>
@@ -11521,7 +11521,7 @@
         <v>0</v>
       </c>
       <c r="V56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W56" s="0">
         <v>0</v>
@@ -11542,7 +11542,7 @@
         <v>0</v>
       </c>
       <c r="AC56" s="0">
-        <v>0</v>
+        <v>0.75582963549464832</v>
       </c>
       <c r="AD56" s="0">
         <v>0</v>
@@ -11551,7 +11551,7 @@
         <v>0</v>
       </c>
       <c r="AF56" s="0">
-        <v>0</v>
+        <v>0.75113016862963056</v>
       </c>
       <c r="AG56" s="0">
         <v>0</v>
@@ -11590,7 +11590,7 @@
         <v>0</v>
       </c>
       <c r="AS56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT56" s="0">
         <v>0</v>
@@ -11602,7 +11602,7 @@
         <v>0</v>
       </c>
       <c r="AW56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX56" s="0">
         <v>0</v>
@@ -11626,7 +11626,7 @@
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>0</v>
+        <v>0.54422086029914041</v>
       </c>
       <c r="BF56" s="0">
         <v>0</v>
@@ -11656,10 +11656,10 @@
         <v>0</v>
       </c>
       <c r="BO56" s="0">
-        <v>0</v>
+        <v>0.72868251826146269</v>
       </c>
       <c r="BP56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -11760,7 +11760,7 @@
         <v>0</v>
       </c>
       <c r="AG57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH57" s="0">
         <v>0</v>
@@ -11772,13 +11772,13 @@
         <v>0</v>
       </c>
       <c r="AK57" s="0">
-        <v>0</v>
+        <v>0.50936629016687562</v>
       </c>
       <c r="AL57" s="0">
         <v>0</v>
       </c>
       <c r="AM57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN57" s="0">
         <v>0</v>
@@ -11793,13 +11793,13 @@
         <v>0</v>
       </c>
       <c r="AR57" s="0">
-        <v>0</v>
+        <v>0.909333013239503</v>
       </c>
       <c r="AS57" s="0">
         <v>0</v>
       </c>
       <c r="AT57" s="0">
-        <v>1</v>
+        <v>0.54480437336559429</v>
       </c>
       <c r="AU57" s="0">
         <v>0</v>
@@ -11829,7 +11829,7 @@
         <v>0</v>
       </c>
       <c r="BD57" s="0">
-        <v>0</v>
+        <v>0.94660990736368489</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
@@ -11844,10 +11844,10 @@
         <v>0</v>
       </c>
       <c r="BI57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ57" s="0">
-        <v>0</v>
+        <v>0.51258955278358576</v>
       </c>
       <c r="BK57" s="0">
         <v>0</v>
@@ -11879,7 +11879,7 @@
         <v>0</v>
       </c>
       <c r="D58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" s="0">
         <v>0</v>
@@ -11993,7 +11993,7 @@
         <v>0</v>
       </c>
       <c r="AP58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ58" s="0">
         <v>0</v>
@@ -12017,7 +12017,7 @@
         <v>0</v>
       </c>
       <c r="AX58" s="0">
-        <v>0</v>
+        <v>0.86615250525422438</v>
       </c>
       <c r="AY58" s="0">
         <v>0</v>
@@ -12029,7 +12029,7 @@
         <v>0</v>
       </c>
       <c r="BB58" s="0">
-        <v>0</v>
+        <v>0.85943223938768532</v>
       </c>
       <c r="BC58" s="0">
         <v>0</v>
@@ -12062,7 +12062,7 @@
         <v>0</v>
       </c>
       <c r="BM58" s="0">
-        <v>0</v>
+        <v>0.54993854182369184</v>
       </c>
       <c r="BN58" s="0">
         <v>0</v>
@@ -12130,7 +12130,7 @@
         <v>0</v>
       </c>
       <c r="S59" s="0">
-        <v>0</v>
+        <v>0.62808229191437592</v>
       </c>
       <c r="T59" s="0">
         <v>0</v>
@@ -12139,13 +12139,13 @@
         <v>0</v>
       </c>
       <c r="V59" s="0">
-        <v>0</v>
+        <v>0.90717866556767768</v>
       </c>
       <c r="W59" s="0">
         <v>0</v>
       </c>
       <c r="X59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y59" s="0">
         <v>0</v>
@@ -12160,7 +12160,7 @@
         <v>0</v>
       </c>
       <c r="AC59" s="0">
-        <v>0</v>
+        <v>0.68463545967736628</v>
       </c>
       <c r="AD59" s="0">
         <v>0</v>
@@ -12202,10 +12202,10 @@
         <v>0</v>
       </c>
       <c r="AQ59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS59" s="0">
         <v>0</v>
@@ -12217,7 +12217,7 @@
         <v>0</v>
       </c>
       <c r="AV59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW59" s="0">
         <v>0</v>
@@ -12256,7 +12256,7 @@
         <v>0</v>
       </c>
       <c r="BI59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12282,7 +12282,7 @@
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B60" s="0">
         <v>0</v>
@@ -12297,7 +12297,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="0">
-        <v>0</v>
+        <v>0.50647353118410243</v>
       </c>
       <c r="G60" s="0">
         <v>0</v>
@@ -12306,13 +12306,13 @@
         <v>0</v>
       </c>
       <c r="I60" s="0">
-        <v>0</v>
+        <v>0.76176110470855907</v>
       </c>
       <c r="J60" s="0">
         <v>0</v>
       </c>
       <c r="K60" s="0">
-        <v>0</v>
+        <v>0.68224058292860523</v>
       </c>
       <c r="L60" s="0">
         <v>0</v>
@@ -12369,10 +12369,10 @@
         <v>0</v>
       </c>
       <c r="AD60" s="0">
-        <v>0</v>
+        <v>0.81727814735126914</v>
       </c>
       <c r="AE60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF60" s="0">
         <v>0</v>
@@ -12393,7 +12393,7 @@
         <v>0</v>
       </c>
       <c r="AL60" s="0">
-        <v>1</v>
+        <v>0.59807839373157357</v>
       </c>
       <c r="AM60" s="0">
         <v>0</v>
@@ -12536,7 +12536,7 @@
         <v>0</v>
       </c>
       <c r="Q61" s="0">
-        <v>0</v>
+        <v>0.66379285363545826</v>
       </c>
       <c r="R61" s="0">
         <v>0</v>
@@ -12548,7 +12548,7 @@
         <v>0</v>
       </c>
       <c r="U61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V61" s="0">
         <v>0</v>
@@ -12584,7 +12584,7 @@
         <v>0</v>
       </c>
       <c r="AG61" s="0">
-        <v>0</v>
+        <v>0.79454431271775017</v>
       </c>
       <c r="AH61" s="0">
         <v>0</v>
@@ -12617,7 +12617,7 @@
         <v>0</v>
       </c>
       <c r="AR61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS61" s="0">
         <v>0</v>
@@ -12638,7 +12638,7 @@
         <v>0</v>
       </c>
       <c r="AY61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ61" s="0">
         <v>0</v>
@@ -12656,13 +12656,13 @@
         <v>0</v>
       </c>
       <c r="BE61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF61" s="0">
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH61" s="0">
         <v>0</v>
@@ -12674,10 +12674,10 @@
         <v>0</v>
       </c>
       <c r="BK61" s="0">
-        <v>0</v>
+        <v>0.88643086792310455</v>
       </c>
       <c r="BL61" s="0">
-        <v>0</v>
+        <v>0.91584829462785333</v>
       </c>
       <c r="BM61" s="0">
         <v>0</v>
@@ -12724,7 +12724,7 @@
         <v>0</v>
       </c>
       <c r="K62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62" s="0">
         <v>0</v>
@@ -12760,7 +12760,7 @@
         <v>0</v>
       </c>
       <c r="W62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X62" s="0">
         <v>0</v>
@@ -12769,7 +12769,7 @@
         <v>0</v>
       </c>
       <c r="Z62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA62" s="0">
         <v>0</v>
@@ -12793,7 +12793,7 @@
         <v>0</v>
       </c>
       <c r="AH62" s="0">
-        <v>0</v>
+        <v>0.99152206494488149</v>
       </c>
       <c r="AI62" s="0">
         <v>0</v>
@@ -12832,7 +12832,7 @@
         <v>0</v>
       </c>
       <c r="AU62" s="0">
-        <v>0</v>
+        <v>0.98172598387759713</v>
       </c>
       <c r="AV62" s="0">
         <v>0</v>
@@ -12862,7 +12862,7 @@
         <v>0</v>
       </c>
       <c r="BE62" s="0">
-        <v>0</v>
+        <v>0.74270183309363758</v>
       </c>
       <c r="BF62" s="0">
         <v>0</v>
@@ -12880,7 +12880,7 @@
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>0</v>
+        <v>0.65840776915544186</v>
       </c>
       <c r="BL62" s="0">
         <v>0</v>
@@ -12895,7 +12895,7 @@
         <v>0</v>
       </c>
       <c r="BP62" s="0">
-        <v>1</v>
+        <v>0.86393115830417266</v>
       </c>
     </row>
     <row r="63">
@@ -12909,7 +12909,7 @@
         <v>0</v>
       </c>
       <c r="D63" s="0">
-        <v>0</v>
+        <v>0.84790175779102572</v>
       </c>
       <c r="E63" s="0">
         <v>0</v>
@@ -12921,7 +12921,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="0">
-        <v>0</v>
+        <v>0.94433914610430092</v>
       </c>
       <c r="I63" s="0">
         <v>0</v>
@@ -12954,7 +12954,7 @@
         <v>0</v>
       </c>
       <c r="S63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T63" s="0">
         <v>0</v>
@@ -13035,7 +13035,7 @@
         <v>0</v>
       </c>
       <c r="AT63" s="0">
-        <v>0</v>
+        <v>0.6626074790716614</v>
       </c>
       <c r="AU63" s="0">
         <v>0</v>
@@ -13047,7 +13047,7 @@
         <v>0</v>
       </c>
       <c r="AX63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY63" s="0">
         <v>0</v>
@@ -13062,7 +13062,7 @@
         <v>0</v>
       </c>
       <c r="BC63" s="0">
-        <v>0</v>
+        <v>0.69214223410872366</v>
       </c>
       <c r="BD63" s="0">
         <v>0</v>
@@ -13080,10 +13080,10 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>0</v>
+        <v>0.92956730318978353</v>
       </c>
       <c r="BJ63" s="0">
-        <v>0</v>
+        <v>0.76270391188839715</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
@@ -13163,7 +13163,7 @@
         <v>0</v>
       </c>
       <c r="T64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U64" s="0">
         <v>0</v>
@@ -13178,7 +13178,7 @@
         <v>0</v>
       </c>
       <c r="Y64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z64" s="0">
         <v>0</v>
@@ -13196,13 +13196,13 @@
         <v>0</v>
       </c>
       <c r="AE64" s="0">
-        <v>0</v>
+        <v>0.65278054178110101</v>
       </c>
       <c r="AF64" s="0">
         <v>0</v>
       </c>
       <c r="AG64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH64" s="0">
         <v>0</v>
@@ -13223,7 +13223,7 @@
         <v>0</v>
       </c>
       <c r="AN64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO64" s="0">
         <v>0</v>
@@ -13262,7 +13262,7 @@
         <v>0</v>
       </c>
       <c r="BA64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB64" s="0">
         <v>0</v>
@@ -13286,7 +13286,7 @@
         <v>0</v>
       </c>
       <c r="BI64" s="0">
-        <v>0</v>
+        <v>0.53421793655501681</v>
       </c>
       <c r="BJ64" s="0">
         <v>0</v>
@@ -13298,7 +13298,7 @@
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN64" s="0">
         <v>0</v>
@@ -13312,10 +13312,10 @@
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" s="0">
         <v>0</v>
@@ -13399,7 +13399,7 @@
         <v>0</v>
       </c>
       <c r="AD65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE65" s="0">
         <v>0</v>
@@ -13426,7 +13426,7 @@
         <v>0</v>
       </c>
       <c r="AM65" s="0">
-        <v>0</v>
+        <v>0.76014699885797299</v>
       </c>
       <c r="AN65" s="0">
         <v>0</v>
@@ -13438,7 +13438,7 @@
         <v>0</v>
       </c>
       <c r="AQ65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR65" s="0">
         <v>0</v>
@@ -13483,7 +13483,7 @@
         <v>0</v>
       </c>
       <c r="BF65" s="0">
-        <v>0</v>
+        <v>0.91876462399315773</v>
       </c>
       <c r="BG65" s="0">
         <v>0</v>
@@ -13501,7 +13501,7 @@
         <v>0</v>
       </c>
       <c r="BL65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
@@ -13524,13 +13524,13 @@
         <v>0</v>
       </c>
       <c r="C66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66" s="0">
         <v>0</v>
       </c>
       <c r="E66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" s="0">
         <v>0</v>
@@ -13572,7 +13572,7 @@
         <v>0</v>
       </c>
       <c r="S66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T66" s="0">
         <v>0</v>
@@ -13590,7 +13590,7 @@
         <v>0</v>
       </c>
       <c r="Y66" s="0">
-        <v>0</v>
+        <v>0.93213966746548138</v>
       </c>
       <c r="Z66" s="0">
         <v>0</v>
@@ -13605,7 +13605,7 @@
         <v>0</v>
       </c>
       <c r="AD66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE66" s="0">
         <v>0</v>
@@ -13623,7 +13623,7 @@
         <v>0</v>
       </c>
       <c r="AJ66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK66" s="0">
         <v>0</v>
@@ -13632,7 +13632,7 @@
         <v>0</v>
       </c>
       <c r="AM66" s="0">
-        <v>0</v>
+        <v>0.54712411701085228</v>
       </c>
       <c r="AN66" s="0">
         <v>0</v>
@@ -13716,7 +13716,7 @@
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>0</v>
+        <v>0.71586255948688815</v>
       </c>
       <c r="BP66" s="0">
         <v>0</v>
@@ -13724,7 +13724,7 @@
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13766,7 +13766,7 @@
         <v>0</v>
       </c>
       <c r="O67" s="0">
-        <v>0</v>
+        <v>0.81117057770337597</v>
       </c>
       <c r="P67" s="0">
         <v>0</v>
@@ -13787,7 +13787,7 @@
         <v>0</v>
       </c>
       <c r="V67" s="0">
-        <v>1</v>
+        <v>0.73086846104806502</v>
       </c>
       <c r="W67" s="0">
         <v>0</v>
@@ -13856,7 +13856,7 @@
         <v>0</v>
       </c>
       <c r="AS67" s="0">
-        <v>0</v>
+        <v>0.55578858409632537</v>
       </c>
       <c r="AT67" s="0">
         <v>0</v>
@@ -13889,7 +13889,7 @@
         <v>0</v>
       </c>
       <c r="BD67" s="0">
-        <v>0</v>
+        <v>0.60579076633072115</v>
       </c>
       <c r="BE67" s="0">
         <v>0</v>
@@ -13919,13 +13919,13 @@
         <v>0</v>
       </c>
       <c r="BN67" s="0">
-        <v>0</v>
+        <v>0.85725332739055538</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>0</v>
+        <v>0.94347504813571981</v>
       </c>
     </row>
     <row r="68">
@@ -13933,7 +13933,7 @@
         <v>0</v>
       </c>
       <c r="B68" s="0">
-        <v>0</v>
+        <v>0.93599627434761468</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -13942,7 +13942,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" s="0">
         <v>0</v>
@@ -14056,7 +14056,7 @@
         <v>0</v>
       </c>
       <c r="AQ68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR68" s="0">
         <v>0</v>
@@ -14095,7 +14095,7 @@
         <v>0</v>
       </c>
       <c r="BD68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE68" s="0">
         <v>0</v>
@@ -14113,7 +14113,7 @@
         <v>0</v>
       </c>
       <c r="BJ68" s="0">
-        <v>1</v>
+        <v>0.99369380654809936</v>
       </c>
       <c r="BK68" s="0">
         <v>0</v>
@@ -14128,7 +14128,7 @@
         <v>0</v>
       </c>
       <c r="BO68" s="0">
-        <v>0</v>
+        <v>0.91510785588537757</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject28.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject28.xlsx
@@ -155,13 +155,13 @@
         <v>0</v>
       </c>
       <c r="J1" s="0">
-        <v>0.73434513343346897</v>
+        <v>0.75588153503657229</v>
       </c>
       <c r="K1" s="0">
         <v>0</v>
       </c>
       <c r="L1" s="0">
-        <v>0.67941078739043603</v>
+        <v>0.83808540677147003</v>
       </c>
       <c r="M1" s="0">
         <v>0</v>
@@ -182,7 +182,7 @@
         <v>0</v>
       </c>
       <c r="S1" s="0">
-        <v>0.80723693957331266</v>
+        <v>0.88519648777773052</v>
       </c>
       <c r="T1" s="0">
         <v>0</v>
@@ -484,7 +484,7 @@
         <v>0</v>
       </c>
       <c r="AY2" s="0">
-        <v>0.54169016899105449</v>
+        <v>0.8141520450799461</v>
       </c>
       <c r="AZ2" s="0">
         <v>0</v>
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>0.52244338298347803</v>
+        <v>0.93599627434761468</v>
       </c>
     </row>
     <row r="3">
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="Y3" s="0">
-        <v>0.61383899160968025</v>
+        <v>0.78811613445947892</v>
       </c>
       <c r="Z3" s="0">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="AG3" s="0">
-        <v>0.57593537727936539</v>
+        <v>0.72122078337607454</v>
       </c>
       <c r="AH3" s="0">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.54473346973364323</v>
+        <v>0.76193862847827498</v>
       </c>
       <c r="F4" s="0">
         <v>0</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="AF4" s="0">
-        <v>0.52235660548784768</v>
+        <v>0.58983137582562484</v>
       </c>
       <c r="AG4" s="0">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="0">
-        <v>0.63074364661535509</v>
+        <v>0.72841411198359252</v>
       </c>
       <c r="AK4" s="0">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0.53468123105736209</v>
+        <v>0.73461841691865104</v>
       </c>
       <c r="D5" s="0">
         <v>0.76193862847827498</v>
@@ -1236,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="AA6" s="0">
-        <v>0.69466978390073497</v>
+        <v>0.72507048242232619</v>
       </c>
       <c r="AB6" s="0">
         <v>0</v>
@@ -1379,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="0">
-        <v>0.76834192242017685</v>
+        <v>0.78104319114547338</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>0.54006931172124673</v>
+        <v>0.5484348120183512</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="AH7" s="0">
-        <v>0.6233580582406486</v>
+        <v>0.63016525641433985</v>
       </c>
       <c r="AI7" s="0">
         <v>0</v>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="AQ7" s="0">
-        <v>0.50559098539761083</v>
+        <v>0.74604017384975874</v>
       </c>
       <c r="AR7" s="0">
         <v>0</v>
@@ -1720,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="AY8" s="0">
-        <v>0.51273376949576788</v>
+        <v>0.68066493761630109</v>
       </c>
       <c r="AZ8" s="0">
         <v>0</v>
@@ -1756,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="BK8" s="0">
-        <v>0.75272434018389456</v>
+        <v>0.94433914610430092</v>
       </c>
       <c r="BL8" s="0">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="0">
-        <v>0.68024685608036006</v>
+        <v>0.77377185631460543</v>
       </c>
       <c r="N9" s="0">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="S9" s="0">
-        <v>0.54881119514120313</v>
+        <v>0.61104941509577415</v>
       </c>
       <c r="T9" s="0">
         <v>0</v>
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>0.6545312285472964</v>
+        <v>0.92119861813802562</v>
       </c>
       <c r="F10" s="0">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>0.87284111847096046</v>
       </c>
       <c r="AM10" s="0">
-        <v>0.89152844245782492</v>
+        <v>0.99503903978907893</v>
       </c>
       <c r="AN10" s="0">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="0">
-        <v>0.5139126669519094</v>
+        <v>0.62378640985514688</v>
       </c>
       <c r="G11" s="0">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="BH11" s="0">
-        <v>0.61849737121718673</v>
+        <v>0.68224058292860523</v>
       </c>
       <c r="BI11" s="0">
         <v>0</v>
@@ -2400,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="0">
-        <v>0.50455017452010709</v>
+        <v>0.70855841005450826</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="AB12" s="0">
-        <v>0.59303683691303521</v>
+        <v>0.99081090227131197</v>
       </c>
       <c r="AC12" s="0">
         <v>0</v>
@@ -2514,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="AO12" s="0">
-        <v>0.90201361521717227</v>
+        <v>0.95055099457236469</v>
       </c>
       <c r="AP12" s="0">
         <v>0</v>
@@ -2672,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="Y13" s="0">
-        <v>0.62744813375860975</v>
+        <v>0.63392755122227573</v>
       </c>
       <c r="Z13" s="0">
         <v>0</v>
@@ -3078,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="0">
-        <v>0.52907480375936533</v>
+        <v>0.94384584951347583</v>
       </c>
       <c r="X15" s="0">
         <v>0</v>
@@ -3102,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="AE15" s="0">
-        <v>0.56421260749896351</v>
+        <v>0.65373891778132065</v>
       </c>
       <c r="AF15" s="0">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="BO15" s="0">
-        <v>0.75332244918274638</v>
+        <v>0.81117057770337597</v>
       </c>
       <c r="BP15" s="0">
         <v>0</v>
@@ -3257,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>0.90245861992651122</v>
+        <v>0.9314956651740216</v>
       </c>
       <c r="O16" s="0">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="0">
-        <v>0.76901425189863026</v>
+        <v>0.83074682544909129</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3302,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="0">
-        <v>0.58768761021320148</v>
+        <v>0.62665769808669447</v>
       </c>
       <c r="AD16" s="0">
         <v>0</v>
@@ -3493,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="X17" s="0">
-        <v>0.62819078106397053</v>
+        <v>0.77027068286272293</v>
       </c>
       <c r="Y17" s="0">
         <v>0</v>
@@ -3541,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="AN17" s="0">
-        <v>0.51675885648250963</v>
+        <v>0.99771854125737369</v>
       </c>
       <c r="AO17" s="0">
         <v>0</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="BC17" s="0">
-        <v>0.654984412189625</v>
+        <v>0.93106733867712865</v>
       </c>
       <c r="BD17" s="0">
         <v>0</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="0">
-        <v>0.76363464825002458</v>
+        <v>0.82784647812166257</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3762,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="AS18" s="0">
-        <v>0.51506501763631096</v>
+        <v>0.84778974364939474</v>
       </c>
       <c r="AT18" s="0">
         <v>0</v>
@@ -3917,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="AB19" s="0">
-        <v>0.53047667968165158</v>
+        <v>0.73342381587678362</v>
       </c>
       <c r="AC19" s="0">
         <v>0</v>
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="AO19" s="0">
-        <v>0.71282615716913289</v>
+        <v>0.90897268679996368</v>
       </c>
       <c r="AP19" s="0">
         <v>0</v>
@@ -4072,13 +4072,13 @@
         <v>0</v>
       </c>
       <c r="K20" s="0">
-        <v>0.83485040780269504</v>
+        <v>0.95109751129775422</v>
       </c>
       <c r="L20" s="0">
         <v>0</v>
       </c>
       <c r="M20" s="0">
-        <v>0.71722432442123418</v>
+        <v>0.76329343384408843</v>
       </c>
       <c r="N20" s="0">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="0">
-        <v>0.5410590579883815</v>
+        <v>0.60765563338858042</v>
       </c>
       <c r="AL20" s="0">
         <v>0</v>
@@ -4362,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="AM21" s="0">
-        <v>0.78133730852221617</v>
+        <v>0.81818143332677107</v>
       </c>
       <c r="AN21" s="0">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>0</v>
       </c>
       <c r="AS21" s="0">
-        <v>0.53819499859182396</v>
+        <v>0.94746681382366327</v>
       </c>
       <c r="AT21" s="0">
         <v>0</v>
@@ -4732,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="Y23" s="0">
-        <v>0.64179148099425087</v>
+        <v>0.74597997305783914</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -5093,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="0">
-        <v>0.6889283505017918</v>
+        <v>0.80410202471550929</v>
       </c>
       <c r="I25" s="0">
         <v>0</v>
@@ -5267,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="BN25" s="0">
-        <v>0.54065019801959702</v>
+        <v>0.93213966746548138</v>
       </c>
       <c r="BO25" s="0">
         <v>0</v>
@@ -5487,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="0">
-        <v>0.68543926620180939</v>
+        <v>0.80020662762075168</v>
       </c>
       <c r="C27" s="0">
         <v>0</v>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="Z27" s="0">
-        <v>0.80915789078852463</v>
+        <v>0.98040820366117309</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
@@ -5714,7 +5714,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="0">
-        <v>0.53941206866346181</v>
+        <v>0.60179774493000393</v>
       </c>
       <c r="J28" s="0">
         <v>0</v>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>0.67670096774858635</v>
+        <v>0.81406987504595119</v>
       </c>
       <c r="AD28" s="0">
         <v>0</v>
@@ -5947,7 +5947,7 @@
         <v>0</v>
       </c>
       <c r="R29" s="0">
-        <v>0.7667087404379771</v>
+        <v>0.85960875738654763</v>
       </c>
       <c r="S29" s="0">
         <v>0</v>
@@ -6279,7 +6279,7 @@
         <v>0</v>
       </c>
       <c r="BH30" s="0">
-        <v>0.65561271093711904</v>
+        <v>0.81727814735126914</v>
       </c>
       <c r="BI30" s="0">
         <v>0</v>
@@ -6407,7 +6407,7 @@
         <v>0</v>
       </c>
       <c r="AH31" s="0">
-        <v>0.94045830941917852</v>
+        <v>0.94464064136158976</v>
       </c>
       <c r="AI31" s="0">
         <v>0</v>
@@ -6813,7 +6813,7 @@
         <v>0</v>
       </c>
       <c r="AF33" s="0">
-        <v>0.60370814528552597</v>
+        <v>0.60904864053247132</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
@@ -6900,7 +6900,7 @@
         <v>0</v>
       </c>
       <c r="BI33" s="0">
-        <v>0.5381747747592921</v>
+        <v>0.79454431271775017</v>
       </c>
       <c r="BJ33" s="0">
         <v>0</v>
@@ -7010,7 +7010,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="0">
-        <v>0.61386954386758519</v>
+        <v>0.98755434404007503</v>
       </c>
       <c r="AD34" s="0">
         <v>0</v>
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="AJ34" s="0">
-        <v>0.66888648229020353</v>
+        <v>0.78575331416459915</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7085,7 +7085,7 @@
         <v>0</v>
       </c>
       <c r="BB34" s="0">
-        <v>0.5313557805107374</v>
+        <v>0.86804912280893565</v>
       </c>
       <c r="BC34" s="0">
         <v>0</v>
@@ -7109,7 +7109,7 @@
         <v>0</v>
       </c>
       <c r="BJ34" s="0">
-        <v>0.75952494140323346</v>
+        <v>0.99152206494488149</v>
       </c>
       <c r="BK34" s="0">
         <v>0</v>
@@ -7228,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>0.71584192180400907</v>
+        <v>0.82865266411040972</v>
       </c>
       <c r="AH35" s="0">
         <v>0</v>
@@ -7273,7 +7273,7 @@
         <v>0</v>
       </c>
       <c r="AV35" s="0">
-        <v>0.61750705851010967</v>
+        <v>0.63861201293197878</v>
       </c>
       <c r="AW35" s="0">
         <v>0</v>
@@ -7282,7 +7282,7 @@
         <v>0</v>
       </c>
       <c r="AY35" s="0">
-        <v>0.53533576187175291</v>
+        <v>0.68624356128754993</v>
       </c>
       <c r="AZ35" s="0">
         <v>0</v>
@@ -7673,7 +7673,7 @@
         <v>0</v>
       </c>
       <c r="AR37" s="0">
-        <v>0.54112436933020691</v>
+        <v>0.5439011051096927</v>
       </c>
       <c r="AS37" s="0">
         <v>0</v>
@@ -7777,7 +7777,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="0">
-        <v>0.51695443032767885</v>
+        <v>0.87284111847096046</v>
       </c>
       <c r="K38" s="0">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>0.80529392617317885</v>
+        <v>0.82129036156997826</v>
       </c>
       <c r="AN38" s="0">
         <v>0</v>
@@ -7906,7 +7906,7 @@
         <v>0</v>
       </c>
       <c r="BA38" s="0">
-        <v>0.52295113017786432</v>
+        <v>0.633888776148264</v>
       </c>
       <c r="BB38" s="0">
         <v>0</v>
@@ -8097,7 +8097,7 @@
         <v>0</v>
       </c>
       <c r="AV39" s="0">
-        <v>0.64584435504306437</v>
+        <v>0.86248839056447912</v>
       </c>
       <c r="AW39" s="0">
         <v>0</v>
@@ -8249,7 +8249,7 @@
         <v>0</v>
       </c>
       <c r="AD40" s="0">
-        <v>0.63363330222882164</v>
+        <v>0.67096864717974192</v>
       </c>
       <c r="AE40" s="0">
         <v>0</v>
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="AG41" s="0">
-        <v>0.74766461765832337</v>
+        <v>0.89093079592349311</v>
       </c>
       <c r="AH41" s="0">
         <v>0</v>
@@ -8610,10 +8610,10 @@
         <v>0</v>
       </c>
       <c r="M42" s="0">
-        <v>0.83087629991584322</v>
+        <v>0.99854391321309133</v>
       </c>
       <c r="N42" s="0">
-        <v>0.7868235447841867</v>
+        <v>0.94590389440953637</v>
       </c>
       <c r="O42" s="0">
         <v>0</v>
@@ -8685,13 +8685,13 @@
         <v>0</v>
       </c>
       <c r="AL42" s="0">
-        <v>0.7027588574200021</v>
+        <v>0.70408440744392109</v>
       </c>
       <c r="AM42" s="0">
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>0.74265743937211104</v>
+        <v>0.90499081253553604</v>
       </c>
       <c r="AO42" s="0">
         <v>0</v>
@@ -8828,7 +8828,7 @@
         <v>0</v>
       </c>
       <c r="Q43" s="0">
-        <v>0.72749003917579191</v>
+        <v>0.93398985652277167</v>
       </c>
       <c r="R43" s="0">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="AW43" s="0">
-        <v>0.9912767771465425</v>
+        <v>0.99700562420127281</v>
       </c>
       <c r="AX43" s="0">
         <v>0</v>
@@ -9154,7 +9154,7 @@
         <v>0</v>
       </c>
       <c r="BE44" s="0">
-        <v>0.87408785053213434</v>
+        <v>0.909333013239503</v>
       </c>
       <c r="BF44" s="0">
         <v>0</v>
@@ -9249,7 +9249,7 @@
         <v>0</v>
       </c>
       <c r="T45" s="0">
-        <v>0.65070040870322798</v>
+        <v>0.76327024499487561</v>
       </c>
       <c r="U45" s="0">
         <v>0.94746681382366327</v>
@@ -9267,7 +9267,7 @@
         <v>0</v>
       </c>
       <c r="Z45" s="0">
-        <v>0.82429761368450061</v>
+        <v>0.87116509942907883</v>
       </c>
       <c r="AA45" s="0">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="B46" s="0">
-        <v>0.60036946757432641</v>
+        <v>0.81861162983007385</v>
       </c>
       <c r="C46" s="0">
         <v>0</v>
@@ -9566,7 +9566,7 @@
         <v>0</v>
       </c>
       <c r="BE46" s="0">
-        <v>0.50852479878472401</v>
+        <v>0.54480437336559429</v>
       </c>
       <c r="BF46" s="0">
         <v>0</v>
@@ -9584,7 +9584,7 @@
         <v>0</v>
       </c>
       <c r="BK46" s="0">
-        <v>0.52698838156249828</v>
+        <v>0.6626074790716614</v>
       </c>
       <c r="BL46" s="0">
         <v>0</v>
@@ -9787,7 +9787,7 @@
         <v>0</v>
       </c>
       <c r="BJ47" s="0">
-        <v>0.90259449379894763</v>
+        <v>0.98172598387759713</v>
       </c>
       <c r="BK47" s="0">
         <v>0</v>
@@ -9945,19 +9945,19 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>0.68432634894908018</v>
+        <v>0.81144763391836316</v>
       </c>
       <c r="AU48" s="0">
-        <v>0.56221397626275182</v>
+        <v>0.63769467418178127</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>0.56534412944309131</v>
+        <v>0.71083468307237285</v>
       </c>
       <c r="AX48" s="0">
-        <v>0.57436520815327174</v>
+        <v>0.58683167000737924</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -10285,7 +10285,7 @@
         <v>0</v>
       </c>
       <c r="V50" s="0">
-        <v>0.78505976464504901</v>
+        <v>0.92413229380969342</v>
       </c>
       <c r="W50" s="0">
         <v>0</v>
@@ -10375,7 +10375,7 @@
         <v>0.68101915297976223</v>
       </c>
       <c r="AZ50" s="0">
-        <v>0.60021904816244476</v>
+        <v>0.93289861914123251</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10527,7 +10527,7 @@
         <v>0</v>
       </c>
       <c r="AH51" s="0">
-        <v>0.64702478648065809</v>
+        <v>0.64803285460248672</v>
       </c>
       <c r="AI51" s="0">
         <v>0.68624356128754993</v>
@@ -10572,16 +10572,16 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>0.53446923658829304</v>
+        <v>0.55323316887286378</v>
       </c>
       <c r="AX51" s="0">
-        <v>0.5239801801874383</v>
+        <v>0.68101915297976223</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>0.79077506639376638</v>
+        <v>0.93567647871190429</v>
       </c>
       <c r="BA51" s="0">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="R52" s="0">
-        <v>0.76222309997649607</v>
+        <v>0.97593566536988985</v>
       </c>
       <c r="S52" s="0">
         <v>0</v>
@@ -10760,7 +10760,7 @@
         <v>0</v>
       </c>
       <c r="AQ52" s="0">
-        <v>0.6086373081411145</v>
+        <v>0.81297072199291831</v>
       </c>
       <c r="AR52" s="0">
         <v>0</v>
@@ -10909,10 +10909,10 @@
         <v>0</v>
       </c>
       <c r="X53" s="0">
-        <v>0.71412471262566291</v>
+        <v>0.75425671705206332</v>
       </c>
       <c r="Y53" s="0">
-        <v>0.5532730017042633</v>
+        <v>0.74828131754028204</v>
       </c>
       <c r="Z53" s="0">
         <v>0</v>
@@ -10966,7 +10966,7 @@
         <v>0</v>
       </c>
       <c r="AQ53" s="0">
-        <v>0.52164388324305189</v>
+        <v>0.72503261517965734</v>
       </c>
       <c r="AR53" s="0">
         <v>0</v>
@@ -10993,7 +10993,7 @@
         <v>0</v>
       </c>
       <c r="AZ53" s="0">
-        <v>0.64017113364175482</v>
+        <v>0.93145491091368904</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
@@ -11085,7 +11085,7 @@
         <v>0</v>
       </c>
       <c r="N54" s="0">
-        <v>0.78197933006332443</v>
+        <v>0.94074078302825237</v>
       </c>
       <c r="O54" s="0">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>0</v>
       </c>
       <c r="AE54" s="0">
-        <v>0.67426760119621587</v>
+        <v>0.77890988564494124</v>
       </c>
       <c r="AF54" s="0">
         <v>0</v>
@@ -11199,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>0.54034566840796394</v>
+        <v>0.66500364749258778</v>
       </c>
       <c r="BA54" s="0">
         <v>0</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="BF54" s="0">
-        <v>0.70712891835470404</v>
+        <v>0.85943223938768532</v>
       </c>
       <c r="BG54" s="0">
         <v>0</v>
@@ -11264,7 +11264,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="0">
-        <v>0.92167075961232481</v>
+        <v>0.98333875709036411</v>
       </c>
       <c r="F55" s="0">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="S55" s="0">
-        <v>0.59808881119679069</v>
+        <v>0.76651128724249173</v>
       </c>
       <c r="T55" s="0">
         <v>0</v>
@@ -11411,7 +11411,7 @@
         <v>0</v>
       </c>
       <c r="BB55" s="0">
-        <v>0.54801707614336248</v>
+        <v>0.67000075931924696</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
@@ -11542,7 +11542,7 @@
         <v>0</v>
       </c>
       <c r="AC56" s="0">
-        <v>0.75582963549464832</v>
+        <v>0.92274649479067861</v>
       </c>
       <c r="AD56" s="0">
         <v>0</v>
@@ -11551,7 +11551,7 @@
         <v>0</v>
       </c>
       <c r="AF56" s="0">
-        <v>0.75113016862963056</v>
+        <v>0.89688483069189551</v>
       </c>
       <c r="AG56" s="0">
         <v>0</v>
@@ -11626,7 +11626,7 @@
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>0.54422086029914041</v>
+        <v>0.94660990736368489</v>
       </c>
       <c r="BF56" s="0">
         <v>0</v>
@@ -11772,7 +11772,7 @@
         <v>0</v>
       </c>
       <c r="AK57" s="0">
-        <v>0.50936629016687562</v>
+        <v>0.9249683700452711</v>
       </c>
       <c r="AL57" s="0">
         <v>0</v>
@@ -11847,7 +11847,7 @@
         <v>0</v>
       </c>
       <c r="BJ57" s="0">
-        <v>0.51258955278358576</v>
+        <v>0.74270183309363758</v>
       </c>
       <c r="BK57" s="0">
         <v>0</v>
@@ -12017,7 +12017,7 @@
         <v>0</v>
       </c>
       <c r="AX58" s="0">
-        <v>0.86615250525422438</v>
+        <v>0.98113312051436208</v>
       </c>
       <c r="AY58" s="0">
         <v>0</v>
@@ -12062,7 +12062,7 @@
         <v>0</v>
       </c>
       <c r="BM58" s="0">
-        <v>0.54993854182369184</v>
+        <v>0.91876462399315773</v>
       </c>
       <c r="BN58" s="0">
         <v>0</v>
@@ -12130,7 +12130,7 @@
         <v>0</v>
       </c>
       <c r="S59" s="0">
-        <v>0.62808229191437592</v>
+        <v>0.68566329598108866</v>
       </c>
       <c r="T59" s="0">
         <v>0</v>
@@ -12139,7 +12139,7 @@
         <v>0</v>
       </c>
       <c r="V59" s="0">
-        <v>0.90717866556767768</v>
+        <v>0.95051501477016132</v>
       </c>
       <c r="W59" s="0">
         <v>0</v>
@@ -12160,7 +12160,7 @@
         <v>0</v>
       </c>
       <c r="AC59" s="0">
-        <v>0.68463545967736628</v>
+        <v>0.80528819915186878</v>
       </c>
       <c r="AD59" s="0">
         <v>0</v>
@@ -12297,7 +12297,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="0">
-        <v>0.50647353118410243</v>
+        <v>0.69421907558103402</v>
       </c>
       <c r="G60" s="0">
         <v>0</v>
@@ -12306,7 +12306,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="0">
-        <v>0.76176110470855907</v>
+        <v>0.84437954563194861</v>
       </c>
       <c r="J60" s="0">
         <v>0</v>
@@ -12393,7 +12393,7 @@
         <v>0</v>
       </c>
       <c r="AL60" s="0">
-        <v>0.59807839373157357</v>
+        <v>0.79524071530095974</v>
       </c>
       <c r="AM60" s="0">
         <v>0</v>
@@ -12536,7 +12536,7 @@
         <v>0</v>
       </c>
       <c r="Q61" s="0">
-        <v>0.66379285363545826</v>
+        <v>0.99533709884083121</v>
       </c>
       <c r="R61" s="0">
         <v>0</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="BK61" s="0">
-        <v>0.88643086792310455</v>
+        <v>0.92956730318978353</v>
       </c>
       <c r="BL61" s="0">
         <v>0.91584829462785333</v>
@@ -12880,7 +12880,7 @@
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>0.65840776915544186</v>
+        <v>0.76270391188839715</v>
       </c>
       <c r="BL62" s="0">
         <v>0</v>
@@ -12895,7 +12895,7 @@
         <v>0</v>
       </c>
       <c r="BP62" s="0">
-        <v>0.86393115830417266</v>
+        <v>0.99369380654809936</v>
       </c>
     </row>
     <row r="63">
@@ -12909,7 +12909,7 @@
         <v>0</v>
       </c>
       <c r="D63" s="0">
-        <v>0.84790175779102572</v>
+        <v>0.88108803019031678</v>
       </c>
       <c r="E63" s="0">
         <v>0</v>
@@ -13062,7 +13062,7 @@
         <v>0</v>
       </c>
       <c r="BC63" s="0">
-        <v>0.69214223410872366</v>
+        <v>0.82099737056204758</v>
       </c>
       <c r="BD63" s="0">
         <v>0</v>
@@ -13196,7 +13196,7 @@
         <v>0</v>
       </c>
       <c r="AE64" s="0">
-        <v>0.65278054178110101</v>
+        <v>0.78444527351596016</v>
       </c>
       <c r="AF64" s="0">
         <v>0</v>
@@ -13286,7 +13286,7 @@
         <v>0</v>
       </c>
       <c r="BI64" s="0">
-        <v>0.53421793655501681</v>
+        <v>0.91584829462785333</v>
       </c>
       <c r="BJ64" s="0">
         <v>0</v>
@@ -13426,7 +13426,7 @@
         <v>0</v>
       </c>
       <c r="AM65" s="0">
-        <v>0.76014699885797299</v>
+        <v>0.9978162347119528</v>
       </c>
       <c r="AN65" s="0">
         <v>0</v>
@@ -13632,7 +13632,7 @@
         <v>0</v>
       </c>
       <c r="AM66" s="0">
-        <v>0.54712411701085228</v>
+        <v>0.57565475908514929</v>
       </c>
       <c r="AN66" s="0">
         <v>0</v>
@@ -13716,7 +13716,7 @@
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>0.71586255948688815</v>
+        <v>0.85725332739055538</v>
       </c>
       <c r="BP66" s="0">
         <v>0</v>
@@ -13787,7 +13787,7 @@
         <v>0</v>
       </c>
       <c r="V67" s="0">
-        <v>0.73086846104806502</v>
+        <v>0.91928315314728948</v>
       </c>
       <c r="W67" s="0">
         <v>0</v>
@@ -13856,7 +13856,7 @@
         <v>0</v>
       </c>
       <c r="AS67" s="0">
-        <v>0.55578858409632537</v>
+        <v>0.76455731587742859</v>
       </c>
       <c r="AT67" s="0">
         <v>0</v>
@@ -13889,7 +13889,7 @@
         <v>0</v>
       </c>
       <c r="BD67" s="0">
-        <v>0.60579076633072115</v>
+        <v>0.72868251826146269</v>
       </c>
       <c r="BE67" s="0">
         <v>0</v>
@@ -14128,7 +14128,7 @@
         <v>0</v>
       </c>
       <c r="BO68" s="0">
-        <v>0.91510785588537757</v>
+        <v>0.94347504813571981</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>
